--- a/com.sevenmart/src/main/resources/ExcelFiles/manageDeliveryBoyData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/manageDeliveryBoyData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8F69E-C156-4664-91E4-21058EA6546B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DD5956-7185-427C-B905-57E8898228C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{3EFCBF0D-6915-4D52-B160-E2347A3057A2}"/>
+    <workbookView xWindow="4871" yWindow="2216" windowWidth="18031" windowHeight="9304" activeTab="1" xr2:uid="{3EFCBF0D-6915-4D52-B160-E2347A3057A2}"/>
   </bookViews>
   <sheets>
     <sheet name="deliveryBoyProfileDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="verifyDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Navya</t>
   </si>
@@ -59,13 +59,16 @@
   </si>
   <si>
     <t>leenas</t>
+  </si>
+  <si>
+    <t>Johnjos1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +83,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,9 +112,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -423,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88570174-FDC4-4D0B-88DC-DD95C60385BA}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -507,12 +517,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749676D4-4A1C-477D-99DA-931B962A3E0D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>